--- a/NRI_STLF_Data/WeatherData/T_sanandaj/T_sanandaj95.xlsx
+++ b/NRI_STLF_Data/WeatherData/T_sanandaj/T_sanandaj95.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\NRST\WeatherData\T_sanandaj\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\hkhatibzadeh\Load Forecasting\last data 95.6.13\WeatherData\T_sanandaj\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -16,7 +16,7 @@
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="162913"/>
 </workbook>
 </file>
 
@@ -245,12 +245,12 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Arial"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="178"/>
       <scheme val="minor"/>
@@ -584,13 +584,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AA366"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A129" workbookViewId="0">
-      <selection activeCell="F157" sqref="F157:AA160"/>
+    <sheetView tabSelected="1" topLeftCell="C151" workbookViewId="0">
+      <selection activeCell="G172" sqref="G172"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:27">
       <c r="A1">
         <v>95</v>
       </c>
@@ -670,7 +670,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="2" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:27">
       <c r="A2">
         <v>95</v>
       </c>
@@ -750,7 +750,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="3" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:27">
       <c r="A3">
         <v>95</v>
       </c>
@@ -830,7 +830,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="4" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:27">
       <c r="A4">
         <v>95</v>
       </c>
@@ -910,7 +910,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="5" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:27">
       <c r="A5">
         <v>95</v>
       </c>
@@ -987,7 +987,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="6" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:27">
       <c r="A6">
         <v>95</v>
       </c>
@@ -1064,7 +1064,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="7" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:27">
       <c r="A7">
         <v>95</v>
       </c>
@@ -1144,7 +1144,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="8" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:27">
       <c r="A8">
         <v>95</v>
       </c>
@@ -1224,7 +1224,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="9" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:27">
       <c r="A9">
         <v>95</v>
       </c>
@@ -1304,7 +1304,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="10" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:27">
       <c r="A10">
         <v>95</v>
       </c>
@@ -1384,7 +1384,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="11" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:27">
       <c r="A11">
         <v>95</v>
       </c>
@@ -1464,7 +1464,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="12" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:27">
       <c r="A12">
         <v>95</v>
       </c>
@@ -1541,7 +1541,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="13" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:27">
       <c r="A13">
         <v>95</v>
       </c>
@@ -1621,7 +1621,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="14" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:27">
       <c r="A14">
         <v>95</v>
       </c>
@@ -1698,7 +1698,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="15" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:27">
       <c r="A15">
         <v>95</v>
       </c>
@@ -1775,7 +1775,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="16" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:27">
       <c r="A16">
         <v>95</v>
       </c>
@@ -1852,7 +1852,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="17" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:27">
       <c r="A17">
         <v>95</v>
       </c>
@@ -1929,7 +1929,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="18" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:27">
       <c r="A18">
         <v>95</v>
       </c>
@@ -2006,7 +2006,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="19" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:27">
       <c r="A19">
         <v>95</v>
       </c>
@@ -2083,7 +2083,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="20" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:27">
       <c r="A20">
         <v>95</v>
       </c>
@@ -2160,7 +2160,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="21" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:27">
       <c r="A21">
         <v>95</v>
       </c>
@@ -2237,7 +2237,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="22" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:27">
       <c r="A22">
         <v>95</v>
       </c>
@@ -2317,7 +2317,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="23" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:27">
       <c r="A23">
         <v>95</v>
       </c>
@@ -2397,7 +2397,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="24" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:27">
       <c r="A24">
         <v>95</v>
       </c>
@@ -2477,7 +2477,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="25" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:27">
       <c r="A25">
         <v>95</v>
       </c>
@@ -2557,7 +2557,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="26" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:27">
       <c r="A26">
         <v>95</v>
       </c>
@@ -2637,7 +2637,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="27" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:27">
       <c r="A27">
         <v>95</v>
       </c>
@@ -2717,7 +2717,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="28" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:27">
       <c r="A28">
         <v>95</v>
       </c>
@@ -2797,7 +2797,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="29" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:27">
       <c r="A29">
         <v>95</v>
       </c>
@@ -2877,7 +2877,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="30" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:27">
       <c r="A30">
         <v>95</v>
       </c>
@@ -2954,7 +2954,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="31" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:27">
       <c r="A31">
         <v>95</v>
       </c>
@@ -3031,7 +3031,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="32" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:27">
       <c r="A32">
         <v>95</v>
       </c>
@@ -3108,7 +3108,7 @@
         <v>338</v>
       </c>
     </row>
-    <row r="33" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:27">
       <c r="A33">
         <v>95</v>
       </c>
@@ -3182,7 +3182,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="34" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:27">
       <c r="A34">
         <v>95</v>
       </c>
@@ -3259,7 +3259,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="35" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:27">
       <c r="A35">
         <v>95</v>
       </c>
@@ -3336,7 +3336,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="36" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:27">
       <c r="A36">
         <v>95</v>
       </c>
@@ -3413,7 +3413,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="37" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:27">
       <c r="A37">
         <v>95</v>
       </c>
@@ -3490,7 +3490,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="38" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:27">
       <c r="A38">
         <v>95</v>
       </c>
@@ -3570,7 +3570,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="39" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:27">
       <c r="A39">
         <v>95</v>
       </c>
@@ -3647,7 +3647,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="40" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:27">
       <c r="A40">
         <v>95</v>
       </c>
@@ -3727,7 +3727,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="41" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:27">
       <c r="A41">
         <v>95</v>
       </c>
@@ -3807,7 +3807,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="42" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:27">
       <c r="A42">
         <v>95</v>
       </c>
@@ -3887,7 +3887,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="43" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:27">
       <c r="A43">
         <v>95</v>
       </c>
@@ -3964,7 +3964,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="44" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:27">
       <c r="A44">
         <v>95</v>
       </c>
@@ -4041,7 +4041,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="45" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:27">
       <c r="A45">
         <v>95</v>
       </c>
@@ -4118,7 +4118,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="46" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:27">
       <c r="A46">
         <v>95</v>
       </c>
@@ -4195,7 +4195,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="47" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:27">
       <c r="A47">
         <v>95</v>
       </c>
@@ -4272,7 +4272,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="48" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:27">
       <c r="A48">
         <v>95</v>
       </c>
@@ -4352,7 +4352,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="49" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:27">
       <c r="A49">
         <v>95</v>
       </c>
@@ -4432,7 +4432,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="50" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:27">
       <c r="A50">
         <v>95</v>
       </c>
@@ -4512,7 +4512,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="51" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:27">
       <c r="A51">
         <v>95</v>
       </c>
@@ -4589,7 +4589,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="52" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:27">
       <c r="A52">
         <v>95</v>
       </c>
@@ -4669,7 +4669,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="53" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:27">
       <c r="A53">
         <v>95</v>
       </c>
@@ -4746,7 +4746,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="54" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:27">
       <c r="A54">
         <v>95</v>
       </c>
@@ -4826,7 +4826,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="55" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:27">
       <c r="A55">
         <v>95</v>
       </c>
@@ -4903,7 +4903,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="56" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:27">
       <c r="A56">
         <v>95</v>
       </c>
@@ -4980,7 +4980,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="57" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:27">
       <c r="A57">
         <v>95</v>
       </c>
@@ -5057,7 +5057,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="58" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:27">
       <c r="A58">
         <v>95</v>
       </c>
@@ -5134,7 +5134,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="59" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:27">
       <c r="A59">
         <v>95</v>
       </c>
@@ -5211,7 +5211,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="60" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:27">
       <c r="A60">
         <v>95</v>
       </c>
@@ -5291,7 +5291,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="61" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:27">
       <c r="A61">
         <v>95</v>
       </c>
@@ -5371,7 +5371,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="62" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:27">
       <c r="A62">
         <v>95</v>
       </c>
@@ -5448,7 +5448,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="63" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:27">
       <c r="A63">
         <v>95</v>
       </c>
@@ -5525,7 +5525,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="64" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:27">
       <c r="A64">
         <v>95</v>
       </c>
@@ -5602,7 +5602,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="65" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:27">
       <c r="A65">
         <v>95</v>
       </c>
@@ -5679,7 +5679,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="66" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:27">
       <c r="A66">
         <v>95</v>
       </c>
@@ -5759,7 +5759,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="67" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:27">
       <c r="A67">
         <v>95</v>
       </c>
@@ -5836,7 +5836,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="68" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:27">
       <c r="A68">
         <v>95</v>
       </c>
@@ -5913,7 +5913,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="69" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:27">
       <c r="A69">
         <v>95</v>
       </c>
@@ -5990,7 +5990,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="70" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:27">
       <c r="A70">
         <v>95</v>
       </c>
@@ -6067,7 +6067,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="71" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:27">
       <c r="A71">
         <v>95</v>
       </c>
@@ -6144,7 +6144,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="72" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:27">
       <c r="A72">
         <v>95</v>
       </c>
@@ -6221,7 +6221,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="73" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:27">
       <c r="A73">
         <v>95</v>
       </c>
@@ -6298,7 +6298,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="74" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:27">
       <c r="A74">
         <v>95</v>
       </c>
@@ -6375,7 +6375,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="75" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:27">
       <c r="A75">
         <v>95</v>
       </c>
@@ -6452,7 +6452,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="76" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:27">
       <c r="A76">
         <v>95</v>
       </c>
@@ -6529,7 +6529,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="77" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:27">
       <c r="A77">
         <v>95</v>
       </c>
@@ -6606,7 +6606,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="78" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:27">
       <c r="A78">
         <v>95</v>
       </c>
@@ -6683,7 +6683,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="79" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:27">
       <c r="A79">
         <v>95</v>
       </c>
@@ -6760,7 +6760,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="80" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:27">
       <c r="A80">
         <v>95</v>
       </c>
@@ -6834,7 +6834,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="81" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:27">
       <c r="A81">
         <v>95</v>
       </c>
@@ -6908,7 +6908,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="82" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:27">
       <c r="A82">
         <v>95</v>
       </c>
@@ -6985,7 +6985,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="83" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:27">
       <c r="A83">
         <v>95</v>
       </c>
@@ -7068,7 +7068,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="84" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:27">
       <c r="A84">
         <v>95</v>
       </c>
@@ -7142,7 +7142,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="85" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:27">
       <c r="A85">
         <v>95</v>
       </c>
@@ -7219,7 +7219,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="86" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:27">
       <c r="A86">
         <v>95</v>
       </c>
@@ -7296,7 +7296,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="87" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:27">
       <c r="A87">
         <v>95</v>
       </c>
@@ -7370,7 +7370,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="88" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:27">
       <c r="A88">
         <v>95</v>
       </c>
@@ -7444,7 +7444,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="89" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:27">
       <c r="A89">
         <v>95</v>
       </c>
@@ -7521,7 +7521,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="90" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:27">
       <c r="A90">
         <v>95</v>
       </c>
@@ -7598,7 +7598,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="91" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:27">
       <c r="A91">
         <v>95</v>
       </c>
@@ -7675,7 +7675,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="92" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:27">
       <c r="A92">
         <v>95</v>
       </c>
@@ -7752,7 +7752,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="93" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:27">
       <c r="A93">
         <v>95</v>
       </c>
@@ -7829,7 +7829,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="94" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:27">
       <c r="A94">
         <v>95</v>
       </c>
@@ -7906,7 +7906,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="95" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:27">
       <c r="A95">
         <v>95</v>
       </c>
@@ -7986,7 +7986,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="96" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:27">
       <c r="A96">
         <v>95</v>
       </c>
@@ -8066,7 +8066,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="97" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:27">
       <c r="A97">
         <v>95</v>
       </c>
@@ -8143,7 +8143,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="98" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:27">
       <c r="A98">
         <v>95</v>
       </c>
@@ -8220,7 +8220,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="99" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:27">
       <c r="A99">
         <v>95</v>
       </c>
@@ -8297,7 +8297,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="100" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:27">
       <c r="A100">
         <v>95</v>
       </c>
@@ -8374,7 +8374,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="101" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:27">
       <c r="A101">
         <v>95</v>
       </c>
@@ -8451,7 +8451,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="102" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:27">
       <c r="A102">
         <v>95</v>
       </c>
@@ -8528,7 +8528,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="103" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:27">
       <c r="A103">
         <v>95</v>
       </c>
@@ -8602,7 +8602,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="104" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:27">
       <c r="A104">
         <v>95</v>
       </c>
@@ -8676,7 +8676,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="105" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:27">
       <c r="A105">
         <v>95</v>
       </c>
@@ -8750,7 +8750,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="106" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:27">
       <c r="A106">
         <v>95</v>
       </c>
@@ -8827,7 +8827,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="107" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:27">
       <c r="A107">
         <v>95</v>
       </c>
@@ -8904,7 +8904,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="108" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:27">
       <c r="A108">
         <v>95</v>
       </c>
@@ -8981,7 +8981,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="109" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:27">
       <c r="A109">
         <v>95</v>
       </c>
@@ -9058,7 +9058,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="110" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:27">
       <c r="A110">
         <v>95</v>
       </c>
@@ -9135,7 +9135,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="111" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:27">
       <c r="A111">
         <v>95</v>
       </c>
@@ -9212,7 +9212,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="112" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:27">
       <c r="A112">
         <v>95</v>
       </c>
@@ -9289,7 +9289,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="113" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:27">
       <c r="A113">
         <v>95</v>
       </c>
@@ -9366,7 +9366,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="114" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:27">
       <c r="A114">
         <v>95</v>
       </c>
@@ -9440,7 +9440,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="115" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:27">
       <c r="A115">
         <v>95</v>
       </c>
@@ -9517,7 +9517,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="116" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:27">
       <c r="A116">
         <v>95</v>
       </c>
@@ -9594,7 +9594,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="117" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:27">
       <c r="A117">
         <v>95</v>
       </c>
@@ -9668,7 +9668,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="118" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:27">
       <c r="A118">
         <v>95</v>
       </c>
@@ -9742,7 +9742,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="119" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:27">
       <c r="A119">
         <v>95</v>
       </c>
@@ -9819,7 +9819,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="120" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:27">
       <c r="A120">
         <v>95</v>
       </c>
@@ -9896,7 +9896,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="121" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:27">
       <c r="A121">
         <v>95</v>
       </c>
@@ -9973,7 +9973,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="122" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:27">
       <c r="A122">
         <v>95</v>
       </c>
@@ -10050,7 +10050,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="123" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:27">
       <c r="A123">
         <v>95</v>
       </c>
@@ -10127,7 +10127,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="124" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:27">
       <c r="A124">
         <v>95</v>
       </c>
@@ -10204,7 +10204,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="125" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:27">
       <c r="A125">
         <v>95</v>
       </c>
@@ -10281,7 +10281,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="126" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:27">
       <c r="A126">
         <v>95</v>
       </c>
@@ -10355,7 +10355,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="127" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="127" spans="1:27">
       <c r="A127">
         <v>95</v>
       </c>
@@ -10432,7 +10432,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="128" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:27">
       <c r="A128">
         <v>95</v>
       </c>
@@ -10506,7 +10506,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="129" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="129" spans="1:27">
       <c r="A129">
         <v>95</v>
       </c>
@@ -10580,7 +10580,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="130" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="130" spans="1:27">
       <c r="A130">
         <v>95</v>
       </c>
@@ -10654,7 +10654,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="131" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="131" spans="1:27">
       <c r="A131">
         <v>95</v>
       </c>
@@ -10728,7 +10728,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="132" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="132" spans="1:27">
       <c r="A132">
         <v>95</v>
       </c>
@@ -10802,7 +10802,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="133" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="133" spans="1:27">
       <c r="A133">
         <v>95</v>
       </c>
@@ -10879,7 +10879,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="134" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="134" spans="1:27">
       <c r="A134">
         <v>95</v>
       </c>
@@ -10953,7 +10953,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="135" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="135" spans="1:27">
       <c r="A135">
         <v>95</v>
       </c>
@@ -11030,7 +11030,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="136" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="136" spans="1:27">
       <c r="A136">
         <v>95</v>
       </c>
@@ -11107,7 +11107,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="137" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="137" spans="1:27">
       <c r="A137">
         <v>95</v>
       </c>
@@ -11184,7 +11184,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="138" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="138" spans="1:27">
       <c r="A138">
         <v>95</v>
       </c>
@@ -11261,7 +11261,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="139" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="139" spans="1:27">
       <c r="A139">
         <v>95</v>
       </c>
@@ -11338,7 +11338,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="140" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="140" spans="1:27">
       <c r="A140">
         <v>95</v>
       </c>
@@ -11415,7 +11415,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="141" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="141" spans="1:27">
       <c r="A141">
         <v>95</v>
       </c>
@@ -11492,7 +11492,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="142" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="142" spans="1:27">
       <c r="A142">
         <v>95</v>
       </c>
@@ -11566,7 +11566,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="143" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="143" spans="1:27">
       <c r="A143">
         <v>95</v>
       </c>
@@ -11643,7 +11643,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="144" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="144" spans="1:27">
       <c r="A144">
         <v>95</v>
       </c>
@@ -11720,7 +11720,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="145" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="145" spans="1:27">
       <c r="A145">
         <v>95</v>
       </c>
@@ -11797,7 +11797,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="146" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="146" spans="1:27">
       <c r="A146">
         <v>95</v>
       </c>
@@ -11874,7 +11874,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="147" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="147" spans="1:27">
       <c r="A147">
         <v>95</v>
       </c>
@@ -11951,7 +11951,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="148" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="148" spans="1:27">
       <c r="A148">
         <v>95</v>
       </c>
@@ -12028,7 +12028,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="149" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="149" spans="1:27">
       <c r="A149">
         <v>95</v>
       </c>
@@ -12105,7 +12105,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="150" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="150" spans="1:27">
       <c r="A150">
         <v>95</v>
       </c>
@@ -12182,7 +12182,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="151" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="151" spans="1:27">
       <c r="A151">
         <v>95</v>
       </c>
@@ -12259,7 +12259,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="152" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="152" spans="1:27">
       <c r="A152">
         <v>95</v>
       </c>
@@ -12336,7 +12336,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="153" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="153" spans="1:27">
       <c r="A153">
         <v>95</v>
       </c>
@@ -12413,7 +12413,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="154" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="154" spans="1:27">
       <c r="A154">
         <v>95</v>
       </c>
@@ -12490,7 +12490,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="155" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="155" spans="1:27">
       <c r="A155">
         <v>95</v>
       </c>
@@ -12567,7 +12567,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="156" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="156" spans="1:27">
       <c r="A156">
         <v>95</v>
       </c>
@@ -12644,7 +12644,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="157" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="157" spans="1:27">
       <c r="A157">
         <v>95</v>
       </c>
@@ -12721,7 +12721,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="158" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="158" spans="1:27">
       <c r="A158">
         <v>95</v>
       </c>
@@ -12798,7 +12798,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="159" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="159" spans="1:27">
       <c r="A159">
         <v>95</v>
       </c>
@@ -12875,7 +12875,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="160" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="160" spans="1:27">
       <c r="A160">
         <v>95</v>
       </c>
@@ -12952,7 +12952,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="161" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="161" spans="1:27">
       <c r="A161">
         <v>95</v>
       </c>
@@ -12968,8 +12968,68 @@
       <c r="E161">
         <v>1</v>
       </c>
-    </row>
-    <row r="162" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F161">
+        <v>38</v>
+      </c>
+      <c r="G161">
+        <v>27</v>
+      </c>
+      <c r="H161">
+        <v>15</v>
+      </c>
+      <c r="I161">
+        <v>4</v>
+      </c>
+      <c r="J161">
+        <v>1</v>
+      </c>
+      <c r="K161">
+        <v>-4</v>
+      </c>
+      <c r="L161">
+        <v>42</v>
+      </c>
+      <c r="M161">
+        <v>20</v>
+      </c>
+      <c r="N161">
+        <v>4</v>
+      </c>
+      <c r="O161">
+        <v>1022</v>
+      </c>
+      <c r="P161">
+        <v>1018</v>
+      </c>
+      <c r="Q161">
+        <v>1007</v>
+      </c>
+      <c r="R161">
+        <v>11</v>
+      </c>
+      <c r="S161">
+        <v>10</v>
+      </c>
+      <c r="T161">
+        <v>10</v>
+      </c>
+      <c r="U161">
+        <v>11</v>
+      </c>
+      <c r="V161">
+        <v>3</v>
+      </c>
+      <c r="X161">
+        <v>0</v>
+      </c>
+      <c r="Y161">
+        <v>2</v>
+      </c>
+      <c r="AA161">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="162" spans="1:27">
       <c r="A162">
         <v>95</v>
       </c>
@@ -12985,8 +13045,68 @@
       <c r="E162">
         <v>1</v>
       </c>
-    </row>
-    <row r="163" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F162">
+        <v>39</v>
+      </c>
+      <c r="G162">
+        <v>27</v>
+      </c>
+      <c r="H162">
+        <v>15</v>
+      </c>
+      <c r="I162">
+        <v>6</v>
+      </c>
+      <c r="J162">
+        <v>-1</v>
+      </c>
+      <c r="K162">
+        <v>-4</v>
+      </c>
+      <c r="L162">
+        <v>45</v>
+      </c>
+      <c r="M162">
+        <v>17</v>
+      </c>
+      <c r="N162">
+        <v>4</v>
+      </c>
+      <c r="O162">
+        <v>1022</v>
+      </c>
+      <c r="P162">
+        <v>1017</v>
+      </c>
+      <c r="Q162">
+        <v>1005</v>
+      </c>
+      <c r="R162">
+        <v>11</v>
+      </c>
+      <c r="S162">
+        <v>10</v>
+      </c>
+      <c r="T162">
+        <v>10</v>
+      </c>
+      <c r="U162">
+        <v>14</v>
+      </c>
+      <c r="V162">
+        <v>5</v>
+      </c>
+      <c r="X162">
+        <v>0</v>
+      </c>
+      <c r="Y162">
+        <v>2</v>
+      </c>
+      <c r="AA162">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="163" spans="1:27">
       <c r="A163">
         <v>95</v>
       </c>
@@ -13002,8 +13122,68 @@
       <c r="E163">
         <v>1</v>
       </c>
-    </row>
-    <row r="164" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F163">
+        <v>39</v>
+      </c>
+      <c r="G163">
+        <v>28</v>
+      </c>
+      <c r="H163">
+        <v>17</v>
+      </c>
+      <c r="I163">
+        <v>5</v>
+      </c>
+      <c r="J163">
+        <v>1</v>
+      </c>
+      <c r="K163">
+        <v>-4</v>
+      </c>
+      <c r="L163">
+        <v>45</v>
+      </c>
+      <c r="M163">
+        <v>19</v>
+      </c>
+      <c r="N163">
+        <v>4</v>
+      </c>
+      <c r="O163">
+        <v>1020</v>
+      </c>
+      <c r="P163">
+        <v>1016</v>
+      </c>
+      <c r="Q163">
+        <v>1004</v>
+      </c>
+      <c r="R163">
+        <v>10</v>
+      </c>
+      <c r="S163">
+        <v>10</v>
+      </c>
+      <c r="T163">
+        <v>10</v>
+      </c>
+      <c r="U163">
+        <v>14</v>
+      </c>
+      <c r="V163">
+        <v>5</v>
+      </c>
+      <c r="X163">
+        <v>0</v>
+      </c>
+      <c r="Y163">
+        <v>3</v>
+      </c>
+      <c r="AA163">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="164" spans="1:27">
       <c r="A164">
         <v>95</v>
       </c>
@@ -13019,8 +13199,68 @@
       <c r="E164">
         <v>1</v>
       </c>
-    </row>
-    <row r="165" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F164">
+        <v>39</v>
+      </c>
+      <c r="G164">
+        <v>29</v>
+      </c>
+      <c r="H164">
+        <v>20</v>
+      </c>
+      <c r="I164">
+        <v>5</v>
+      </c>
+      <c r="J164">
+        <v>1</v>
+      </c>
+      <c r="K164">
+        <v>-3</v>
+      </c>
+      <c r="L164">
+        <v>37</v>
+      </c>
+      <c r="M164">
+        <v>18</v>
+      </c>
+      <c r="N164">
+        <v>4</v>
+      </c>
+      <c r="O164">
+        <v>1018</v>
+      </c>
+      <c r="P164">
+        <v>1014</v>
+      </c>
+      <c r="Q164">
+        <v>1003</v>
+      </c>
+      <c r="R164">
+        <v>10</v>
+      </c>
+      <c r="S164">
+        <v>10</v>
+      </c>
+      <c r="T164">
+        <v>10</v>
+      </c>
+      <c r="U164">
+        <v>11</v>
+      </c>
+      <c r="V164">
+        <v>3</v>
+      </c>
+      <c r="X164">
+        <v>0</v>
+      </c>
+      <c r="Y164">
+        <v>3</v>
+      </c>
+      <c r="AA164">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="165" spans="1:27">
       <c r="A165">
         <v>95</v>
       </c>
@@ -13036,8 +13276,68 @@
       <c r="E165">
         <v>1</v>
       </c>
-    </row>
-    <row r="166" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F165">
+        <v>39</v>
+      </c>
+      <c r="G165">
+        <v>30</v>
+      </c>
+      <c r="H165">
+        <v>21</v>
+      </c>
+      <c r="I165">
+        <v>6</v>
+      </c>
+      <c r="J165">
+        <v>2</v>
+      </c>
+      <c r="K165">
+        <v>-3</v>
+      </c>
+      <c r="L165">
+        <v>35</v>
+      </c>
+      <c r="M165">
+        <v>16</v>
+      </c>
+      <c r="N165">
+        <v>4</v>
+      </c>
+      <c r="O165">
+        <v>1017</v>
+      </c>
+      <c r="P165">
+        <v>1013</v>
+      </c>
+      <c r="Q165">
+        <v>1000</v>
+      </c>
+      <c r="R165">
+        <v>11</v>
+      </c>
+      <c r="S165">
+        <v>10</v>
+      </c>
+      <c r="T165">
+        <v>10</v>
+      </c>
+      <c r="U165">
+        <v>14</v>
+      </c>
+      <c r="V165">
+        <v>5</v>
+      </c>
+      <c r="X165">
+        <v>0</v>
+      </c>
+      <c r="Y165">
+        <v>3</v>
+      </c>
+      <c r="AA165">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="166" spans="1:27">
       <c r="A166">
         <v>95</v>
       </c>
@@ -13053,8 +13353,68 @@
       <c r="E166">
         <v>1</v>
       </c>
-    </row>
-    <row r="167" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F166">
+        <v>37</v>
+      </c>
+      <c r="G166">
+        <v>27</v>
+      </c>
+      <c r="H166">
+        <v>17</v>
+      </c>
+      <c r="I166">
+        <v>6</v>
+      </c>
+      <c r="J166">
+        <v>2</v>
+      </c>
+      <c r="K166">
+        <v>-2</v>
+      </c>
+      <c r="L166">
+        <v>45</v>
+      </c>
+      <c r="M166">
+        <v>19</v>
+      </c>
+      <c r="N166">
+        <v>4</v>
+      </c>
+      <c r="O166">
+        <v>1015</v>
+      </c>
+      <c r="P166">
+        <v>1012</v>
+      </c>
+      <c r="Q166">
+        <v>1001</v>
+      </c>
+      <c r="R166">
+        <v>10</v>
+      </c>
+      <c r="S166">
+        <v>9</v>
+      </c>
+      <c r="T166">
+        <v>9</v>
+      </c>
+      <c r="U166">
+        <v>26</v>
+      </c>
+      <c r="V166">
+        <v>6</v>
+      </c>
+      <c r="X166">
+        <v>0</v>
+      </c>
+      <c r="Y166">
+        <v>3</v>
+      </c>
+      <c r="AA166">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="167" spans="1:27">
       <c r="A167">
         <v>95</v>
       </c>
@@ -13070,8 +13430,68 @@
       <c r="E167">
         <v>1</v>
       </c>
-    </row>
-    <row r="168" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F167">
+        <v>36</v>
+      </c>
+      <c r="G167">
+        <v>25</v>
+      </c>
+      <c r="H167">
+        <v>14</v>
+      </c>
+      <c r="I167">
+        <v>5</v>
+      </c>
+      <c r="J167">
+        <v>1</v>
+      </c>
+      <c r="K167">
+        <v>-5</v>
+      </c>
+      <c r="L167">
+        <v>48</v>
+      </c>
+      <c r="M167">
+        <v>22</v>
+      </c>
+      <c r="N167">
+        <v>4</v>
+      </c>
+      <c r="O167">
+        <v>1015</v>
+      </c>
+      <c r="P167">
+        <v>1011</v>
+      </c>
+      <c r="Q167">
+        <v>1001</v>
+      </c>
+      <c r="R167">
+        <v>10</v>
+      </c>
+      <c r="S167">
+        <v>10</v>
+      </c>
+      <c r="T167">
+        <v>10</v>
+      </c>
+      <c r="U167">
+        <v>26</v>
+      </c>
+      <c r="V167">
+        <v>6</v>
+      </c>
+      <c r="X167">
+        <v>0</v>
+      </c>
+      <c r="Y167">
+        <v>1</v>
+      </c>
+      <c r="AA167">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="168" spans="1:27">
       <c r="A168">
         <v>95</v>
       </c>
@@ -13087,8 +13507,17 @@
       <c r="E168">
         <v>1</v>
       </c>
-    </row>
-    <row r="169" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F168">
+        <v>36</v>
+      </c>
+      <c r="G168">
+        <v>19</v>
+      </c>
+      <c r="H168">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="169" spans="1:27">
       <c r="A169">
         <v>95</v>
       </c>
@@ -13104,8 +13533,17 @@
       <c r="E169">
         <v>1</v>
       </c>
-    </row>
-    <row r="170" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F169">
+        <v>37</v>
+      </c>
+      <c r="G169">
+        <v>26</v>
+      </c>
+      <c r="H169">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="170" spans="1:27">
       <c r="A170">
         <v>95</v>
       </c>
@@ -13121,8 +13559,17 @@
       <c r="E170">
         <v>1</v>
       </c>
-    </row>
-    <row r="171" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F170">
+        <v>35</v>
+      </c>
+      <c r="G170">
+        <v>23</v>
+      </c>
+      <c r="H170">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="171" spans="1:27">
       <c r="A171">
         <v>95</v>
       </c>
@@ -13138,8 +13585,17 @@
       <c r="E171">
         <v>1</v>
       </c>
-    </row>
-    <row r="172" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F171">
+        <v>35</v>
+      </c>
+      <c r="G171">
+        <v>23</v>
+      </c>
+      <c r="H171">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="172" spans="1:27">
       <c r="A172">
         <v>95</v>
       </c>
@@ -13155,8 +13611,17 @@
       <c r="E172">
         <v>1</v>
       </c>
-    </row>
-    <row r="173" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F172">
+        <v>33</v>
+      </c>
+      <c r="G172">
+        <v>24</v>
+      </c>
+      <c r="H172">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="173" spans="1:27">
       <c r="A173">
         <v>95</v>
       </c>
@@ -13173,7 +13638,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="174" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="174" spans="1:27">
       <c r="A174">
         <v>95</v>
       </c>
@@ -13190,7 +13655,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="175" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="175" spans="1:27">
       <c r="A175">
         <v>95</v>
       </c>
@@ -13207,7 +13672,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="176" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="176" spans="1:27">
       <c r="A176">
         <v>95</v>
       </c>
@@ -13224,7 +13689,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="177" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="177" spans="1:5">
       <c r="A177">
         <v>95</v>
       </c>
@@ -13241,7 +13706,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="178" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="178" spans="1:5">
       <c r="A178">
         <v>95</v>
       </c>
@@ -13258,7 +13723,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="179" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="179" spans="1:5">
       <c r="A179">
         <v>95</v>
       </c>
@@ -13275,7 +13740,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="180" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="180" spans="1:5">
       <c r="A180">
         <v>95</v>
       </c>
@@ -13292,7 +13757,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="181" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="181" spans="1:5">
       <c r="A181">
         <v>95</v>
       </c>
@@ -13309,7 +13774,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="182" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="182" spans="1:5">
       <c r="A182">
         <v>95</v>
       </c>
@@ -13326,7 +13791,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="183" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="183" spans="1:5">
       <c r="A183">
         <v>95</v>
       </c>
@@ -13343,7 +13808,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="184" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="184" spans="1:5">
       <c r="A184">
         <v>95</v>
       </c>
@@ -13360,7 +13825,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="185" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="185" spans="1:5">
       <c r="A185">
         <v>95</v>
       </c>
@@ -13377,7 +13842,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="186" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="186" spans="1:5">
       <c r="A186">
         <v>95</v>
       </c>
@@ -13394,7 +13859,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="187" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="187" spans="1:5">
       <c r="A187">
         <v>95</v>
       </c>
@@ -13411,7 +13876,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="188" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="188" spans="1:5">
       <c r="A188">
         <v>95</v>
       </c>
@@ -13428,7 +13893,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="189" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="189" spans="1:5">
       <c r="A189">
         <v>95</v>
       </c>
@@ -13445,7 +13910,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="190" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="190" spans="1:5">
       <c r="A190">
         <v>95</v>
       </c>
@@ -13462,7 +13927,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="191" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="191" spans="1:5">
       <c r="A191">
         <v>95</v>
       </c>
@@ -13479,7 +13944,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="192" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="192" spans="1:5">
       <c r="A192">
         <v>95</v>
       </c>
@@ -13496,7 +13961,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="193" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="193" spans="1:5">
       <c r="A193">
         <v>95</v>
       </c>
@@ -13513,7 +13978,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="194" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="194" spans="1:5">
       <c r="A194">
         <v>95</v>
       </c>
@@ -13530,7 +13995,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="195" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="195" spans="1:5">
       <c r="A195">
         <v>95</v>
       </c>
@@ -13547,7 +14012,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="196" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="196" spans="1:5">
       <c r="A196">
         <v>95</v>
       </c>
@@ -13564,7 +14029,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="197" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="197" spans="1:5">
       <c r="A197">
         <v>95</v>
       </c>
@@ -13581,7 +14046,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="198" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="198" spans="1:5">
       <c r="A198">
         <v>95</v>
       </c>
@@ -13598,7 +14063,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="199" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="199" spans="1:5">
       <c r="A199">
         <v>95</v>
       </c>
@@ -13615,7 +14080,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="200" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="200" spans="1:5">
       <c r="A200">
         <v>95</v>
       </c>
@@ -13632,7 +14097,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="201" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="201" spans="1:5">
       <c r="A201">
         <v>95</v>
       </c>
@@ -13649,7 +14114,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="202" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="202" spans="1:5">
       <c r="A202">
         <v>95</v>
       </c>
@@ -13666,7 +14131,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="203" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="203" spans="1:5">
       <c r="A203">
         <v>95</v>
       </c>
@@ -13683,7 +14148,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="204" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="204" spans="1:5">
       <c r="A204">
         <v>95</v>
       </c>
@@ -13700,7 +14165,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="205" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="205" spans="1:5">
       <c r="A205">
         <v>95</v>
       </c>
@@ -13717,7 +14182,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="206" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="206" spans="1:5">
       <c r="A206">
         <v>95</v>
       </c>
@@ -13734,7 +14199,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="207" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="207" spans="1:5">
       <c r="A207">
         <v>95</v>
       </c>
@@ -13751,7 +14216,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="208" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="208" spans="1:5">
       <c r="A208">
         <v>95</v>
       </c>
@@ -13768,7 +14233,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="209" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="209" spans="1:5">
       <c r="A209">
         <v>95</v>
       </c>
@@ -13785,7 +14250,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="210" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="210" spans="1:5">
       <c r="A210">
         <v>95</v>
       </c>
@@ -13802,7 +14267,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="211" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="211" spans="1:5">
       <c r="A211">
         <v>95</v>
       </c>
@@ -13819,7 +14284,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="212" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="212" spans="1:5">
       <c r="A212">
         <v>95</v>
       </c>
@@ -13836,7 +14301,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="213" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="213" spans="1:5">
       <c r="A213">
         <v>95</v>
       </c>
@@ -13853,7 +14318,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="214" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="214" spans="1:5">
       <c r="A214">
         <v>95</v>
       </c>
@@ -13870,7 +14335,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="215" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="215" spans="1:5">
       <c r="A215">
         <v>95</v>
       </c>
@@ -13887,7 +14352,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="216" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="216" spans="1:5">
       <c r="A216">
         <v>95</v>
       </c>
@@ -13904,7 +14369,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="217" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="217" spans="1:5">
       <c r="A217">
         <v>95</v>
       </c>
@@ -13921,7 +14386,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="218" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="218" spans="1:5">
       <c r="A218">
         <v>95</v>
       </c>
@@ -13938,7 +14403,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="219" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="219" spans="1:5">
       <c r="A219">
         <v>95</v>
       </c>
@@ -13955,7 +14420,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="220" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="220" spans="1:5">
       <c r="A220">
         <v>95</v>
       </c>
@@ -13972,7 +14437,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="221" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="221" spans="1:5">
       <c r="A221">
         <v>95</v>
       </c>
@@ -13989,7 +14454,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="222" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="222" spans="1:5">
       <c r="A222">
         <v>95</v>
       </c>
@@ -14006,7 +14471,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="223" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="223" spans="1:5">
       <c r="A223">
         <v>95</v>
       </c>
@@ -14023,7 +14488,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="224" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="224" spans="1:5">
       <c r="A224">
         <v>95</v>
       </c>
@@ -14040,7 +14505,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="225" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="225" spans="1:5">
       <c r="A225">
         <v>95</v>
       </c>
@@ -14057,7 +14522,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="226" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="226" spans="1:5">
       <c r="A226">
         <v>95</v>
       </c>
@@ -14074,7 +14539,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="227" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="227" spans="1:5">
       <c r="A227">
         <v>95</v>
       </c>
@@ -14091,7 +14556,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="228" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="228" spans="1:5">
       <c r="A228">
         <v>95</v>
       </c>
@@ -14108,7 +14573,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="229" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="229" spans="1:5">
       <c r="A229">
         <v>95</v>
       </c>
@@ -14125,7 +14590,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="230" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="230" spans="1:5">
       <c r="A230">
         <v>95</v>
       </c>
@@ -14142,7 +14607,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="231" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="231" spans="1:5">
       <c r="A231">
         <v>95</v>
       </c>
@@ -14159,7 +14624,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="232" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="232" spans="1:5">
       <c r="A232">
         <v>95</v>
       </c>
@@ -14176,7 +14641,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="233" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="233" spans="1:5">
       <c r="A233">
         <v>95</v>
       </c>
@@ -14193,7 +14658,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="234" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="234" spans="1:5">
       <c r="A234">
         <v>95</v>
       </c>
@@ -14210,7 +14675,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="235" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="235" spans="1:5">
       <c r="A235">
         <v>95</v>
       </c>
@@ -14227,7 +14692,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="236" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="236" spans="1:5">
       <c r="A236">
         <v>95</v>
       </c>
@@ -14244,7 +14709,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="237" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="237" spans="1:5">
       <c r="A237">
         <v>95</v>
       </c>
@@ -14261,7 +14726,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="238" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="238" spans="1:5">
       <c r="A238">
         <v>95</v>
       </c>
@@ -14278,7 +14743,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="239" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="239" spans="1:5">
       <c r="A239">
         <v>95</v>
       </c>
@@ -14295,7 +14760,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="240" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="240" spans="1:5">
       <c r="A240">
         <v>95</v>
       </c>
@@ -14312,7 +14777,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="241" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="241" spans="1:5">
       <c r="A241">
         <v>95</v>
       </c>
@@ -14329,7 +14794,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="242" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="242" spans="1:5">
       <c r="A242">
         <v>95</v>
       </c>
@@ -14346,7 +14811,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="243" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="243" spans="1:5">
       <c r="A243">
         <v>95</v>
       </c>
@@ -14363,7 +14828,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="244" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="244" spans="1:5">
       <c r="A244">
         <v>95</v>
       </c>
@@ -14380,7 +14845,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="245" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="245" spans="1:5">
       <c r="A245">
         <v>95</v>
       </c>
@@ -14397,7 +14862,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="246" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="246" spans="1:5">
       <c r="A246">
         <v>95</v>
       </c>
@@ -14414,7 +14879,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="247" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="247" spans="1:5">
       <c r="A247">
         <v>95</v>
       </c>
@@ -14431,7 +14896,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="248" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="248" spans="1:5">
       <c r="A248">
         <v>95</v>
       </c>
@@ -14448,7 +14913,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="249" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="249" spans="1:5">
       <c r="A249">
         <v>95</v>
       </c>
@@ -14465,7 +14930,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="250" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="250" spans="1:5">
       <c r="A250">
         <v>95</v>
       </c>
@@ -14482,7 +14947,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="251" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="251" spans="1:5">
       <c r="A251">
         <v>95</v>
       </c>
@@ -14499,7 +14964,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="252" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="252" spans="1:5">
       <c r="A252">
         <v>95</v>
       </c>
@@ -14516,7 +14981,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="253" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="253" spans="1:5">
       <c r="A253">
         <v>95</v>
       </c>
@@ -14533,7 +14998,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="254" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="254" spans="1:5">
       <c r="A254">
         <v>95</v>
       </c>
@@ -14550,7 +15015,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="255" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="255" spans="1:5">
       <c r="A255">
         <v>95</v>
       </c>
@@ -14567,7 +15032,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="256" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="256" spans="1:5">
       <c r="A256">
         <v>95</v>
       </c>
@@ -14584,7 +15049,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="257" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="257" spans="1:5">
       <c r="A257">
         <v>95</v>
       </c>
@@ -14601,7 +15066,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="258" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="258" spans="1:5">
       <c r="A258">
         <v>95</v>
       </c>
@@ -14618,7 +15083,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="259" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="259" spans="1:5">
       <c r="A259">
         <v>95</v>
       </c>
@@ -14635,7 +15100,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="260" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="260" spans="1:5">
       <c r="A260">
         <v>95</v>
       </c>
@@ -14652,7 +15117,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="261" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="261" spans="1:5">
       <c r="A261">
         <v>95</v>
       </c>
@@ -14669,7 +15134,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="262" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="262" spans="1:5">
       <c r="A262">
         <v>95</v>
       </c>
@@ -14686,7 +15151,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="263" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="263" spans="1:5">
       <c r="A263">
         <v>95</v>
       </c>
@@ -14703,7 +15168,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="264" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="264" spans="1:5">
       <c r="A264">
         <v>95</v>
       </c>
@@ -14720,7 +15185,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="265" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="265" spans="1:5">
       <c r="A265">
         <v>95</v>
       </c>
@@ -14737,7 +15202,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="266" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="266" spans="1:5">
       <c r="A266">
         <v>95</v>
       </c>
@@ -14754,7 +15219,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="267" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="267" spans="1:5">
       <c r="A267">
         <v>95</v>
       </c>
@@ -14771,7 +15236,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="268" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="268" spans="1:5">
       <c r="A268">
         <v>95</v>
       </c>
@@ -14788,7 +15253,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="269" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="269" spans="1:5">
       <c r="A269">
         <v>95</v>
       </c>
@@ -14805,7 +15270,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="270" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="270" spans="1:5">
       <c r="A270">
         <v>95</v>
       </c>
@@ -14822,7 +15287,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="271" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="271" spans="1:5">
       <c r="A271">
         <v>95</v>
       </c>
@@ -14839,7 +15304,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="272" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="272" spans="1:5">
       <c r="A272">
         <v>95</v>
       </c>
@@ -14856,7 +15321,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="273" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="273" spans="1:5">
       <c r="A273">
         <v>95</v>
       </c>
@@ -14873,7 +15338,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="274" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="274" spans="1:5">
       <c r="A274">
         <v>95</v>
       </c>
@@ -14890,7 +15355,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="275" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="275" spans="1:5">
       <c r="A275">
         <v>95</v>
       </c>
@@ -14907,7 +15372,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="276" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="276" spans="1:5">
       <c r="A276">
         <v>95</v>
       </c>
@@ -14924,7 +15389,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="277" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="277" spans="1:5">
       <c r="A277">
         <v>95</v>
       </c>
@@ -14941,7 +15406,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="278" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="278" spans="1:5">
       <c r="A278">
         <v>95</v>
       </c>
@@ -14958,7 +15423,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="279" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="279" spans="1:5">
       <c r="A279">
         <v>95</v>
       </c>
@@ -14975,7 +15440,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="280" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="280" spans="1:5">
       <c r="A280">
         <v>95</v>
       </c>
@@ -14992,7 +15457,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="281" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="281" spans="1:5">
       <c r="A281">
         <v>95</v>
       </c>
@@ -15009,7 +15474,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="282" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="282" spans="1:5">
       <c r="A282">
         <v>95</v>
       </c>
@@ -15026,7 +15491,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="283" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="283" spans="1:5">
       <c r="A283">
         <v>95</v>
       </c>
@@ -15043,7 +15508,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="284" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="284" spans="1:5">
       <c r="A284">
         <v>95</v>
       </c>
@@ -15060,7 +15525,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="285" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="285" spans="1:5">
       <c r="A285">
         <v>95</v>
       </c>
@@ -15077,7 +15542,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="286" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="286" spans="1:5">
       <c r="A286">
         <v>95</v>
       </c>
@@ -15094,7 +15559,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="287" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="287" spans="1:5">
       <c r="A287">
         <v>95</v>
       </c>
@@ -15111,7 +15576,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="288" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="288" spans="1:5">
       <c r="A288">
         <v>95</v>
       </c>
@@ -15128,7 +15593,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="289" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="289" spans="1:5">
       <c r="A289">
         <v>95</v>
       </c>
@@ -15145,7 +15610,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="290" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="290" spans="1:5">
       <c r="A290">
         <v>95</v>
       </c>
@@ -15162,7 +15627,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="291" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="291" spans="1:5">
       <c r="A291">
         <v>95</v>
       </c>
@@ -15179,7 +15644,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="292" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="292" spans="1:5">
       <c r="A292">
         <v>95</v>
       </c>
@@ -15196,7 +15661,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="293" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="293" spans="1:5">
       <c r="A293">
         <v>95</v>
       </c>
@@ -15213,7 +15678,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="294" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="294" spans="1:5">
       <c r="A294">
         <v>95</v>
       </c>
@@ -15230,7 +15695,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="295" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="295" spans="1:5">
       <c r="A295">
         <v>95</v>
       </c>
@@ -15247,7 +15712,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="296" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="296" spans="1:5">
       <c r="A296">
         <v>95</v>
       </c>
@@ -15264,7 +15729,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="297" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="297" spans="1:5">
       <c r="A297">
         <v>95</v>
       </c>
@@ -15281,7 +15746,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="298" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="298" spans="1:5">
       <c r="A298">
         <v>95</v>
       </c>
@@ -15298,7 +15763,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="299" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="299" spans="1:5">
       <c r="A299">
         <v>95</v>
       </c>
@@ -15315,7 +15780,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="300" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="300" spans="1:5">
       <c r="A300">
         <v>95</v>
       </c>
@@ -15332,7 +15797,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="301" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="301" spans="1:5">
       <c r="A301">
         <v>95</v>
       </c>
@@ -15349,7 +15814,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="302" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="302" spans="1:5">
       <c r="A302">
         <v>95</v>
       </c>
@@ -15366,7 +15831,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="303" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="303" spans="1:5">
       <c r="A303">
         <v>95</v>
       </c>
@@ -15383,7 +15848,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="304" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="304" spans="1:5">
       <c r="A304">
         <v>95</v>
       </c>
@@ -15400,7 +15865,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="305" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="305" spans="1:5">
       <c r="A305">
         <v>95</v>
       </c>
@@ -15417,7 +15882,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="306" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="306" spans="1:5">
       <c r="A306">
         <v>95</v>
       </c>
@@ -15434,7 +15899,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="307" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="307" spans="1:5">
       <c r="A307">
         <v>95</v>
       </c>
@@ -15451,7 +15916,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="308" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="308" spans="1:5">
       <c r="A308">
         <v>95</v>
       </c>
@@ -15468,7 +15933,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="309" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="309" spans="1:5">
       <c r="A309">
         <v>95</v>
       </c>
@@ -15485,7 +15950,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="310" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="310" spans="1:5">
       <c r="A310">
         <v>95</v>
       </c>
@@ -15502,7 +15967,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="311" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="311" spans="1:5">
       <c r="A311">
         <v>95</v>
       </c>
@@ -15519,7 +15984,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="312" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="312" spans="1:5">
       <c r="A312">
         <v>95</v>
       </c>
@@ -15536,7 +16001,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="313" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="313" spans="1:5">
       <c r="A313">
         <v>95</v>
       </c>
@@ -15553,7 +16018,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="314" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="314" spans="1:5">
       <c r="A314">
         <v>95</v>
       </c>
@@ -15570,7 +16035,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="315" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="315" spans="1:5">
       <c r="A315">
         <v>95</v>
       </c>
@@ -15587,7 +16052,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="316" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="316" spans="1:5">
       <c r="A316">
         <v>95</v>
       </c>
@@ -15604,7 +16069,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="317" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="317" spans="1:5">
       <c r="A317">
         <v>95</v>
       </c>
@@ -15621,7 +16086,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="318" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="318" spans="1:5">
       <c r="A318">
         <v>95</v>
       </c>
@@ -15638,7 +16103,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="319" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="319" spans="1:5">
       <c r="A319">
         <v>95</v>
       </c>
@@ -15655,7 +16120,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="320" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="320" spans="1:5">
       <c r="A320">
         <v>95</v>
       </c>
@@ -15672,7 +16137,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="321" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="321" spans="1:5">
       <c r="A321">
         <v>95</v>
       </c>
@@ -15689,7 +16154,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="322" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="322" spans="1:5">
       <c r="A322">
         <v>95</v>
       </c>
@@ -15706,7 +16171,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="323" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="323" spans="1:5">
       <c r="A323">
         <v>95</v>
       </c>
@@ -15723,7 +16188,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="324" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="324" spans="1:5">
       <c r="A324">
         <v>95</v>
       </c>
@@ -15740,7 +16205,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="325" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="325" spans="1:5">
       <c r="A325">
         <v>95</v>
       </c>
@@ -15757,7 +16222,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="326" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="326" spans="1:5">
       <c r="A326">
         <v>95</v>
       </c>
@@ -15774,7 +16239,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="327" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="327" spans="1:5">
       <c r="A327">
         <v>95</v>
       </c>
@@ -15791,7 +16256,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="328" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="328" spans="1:5">
       <c r="A328">
         <v>95</v>
       </c>
@@ -15808,7 +16273,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="329" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="329" spans="1:5">
       <c r="A329">
         <v>95</v>
       </c>
@@ -15825,7 +16290,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="330" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="330" spans="1:5">
       <c r="A330">
         <v>95</v>
       </c>
@@ -15842,7 +16307,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="331" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="331" spans="1:5">
       <c r="A331">
         <v>95</v>
       </c>
@@ -15859,7 +16324,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="332" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="332" spans="1:5">
       <c r="A332">
         <v>95</v>
       </c>
@@ -15876,7 +16341,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="333" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="333" spans="1:5">
       <c r="A333">
         <v>95</v>
       </c>
@@ -15893,7 +16358,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="334" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="334" spans="1:5">
       <c r="A334">
         <v>95</v>
       </c>
@@ -15910,7 +16375,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="335" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="335" spans="1:5">
       <c r="A335">
         <v>95</v>
       </c>
@@ -15927,7 +16392,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="336" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="336" spans="1:5">
       <c r="A336">
         <v>95</v>
       </c>
@@ -15944,7 +16409,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="337" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="337" spans="1:5">
       <c r="A337">
         <v>95</v>
       </c>
@@ -15961,7 +16426,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="338" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="338" spans="1:5">
       <c r="A338">
         <v>95</v>
       </c>
@@ -15978,7 +16443,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="339" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="339" spans="1:5">
       <c r="A339">
         <v>95</v>
       </c>
@@ -15995,7 +16460,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="340" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="340" spans="1:5">
       <c r="A340">
         <v>95</v>
       </c>
@@ -16012,7 +16477,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="341" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="341" spans="1:5">
       <c r="A341">
         <v>95</v>
       </c>
@@ -16029,7 +16494,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="342" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="342" spans="1:5">
       <c r="A342">
         <v>95</v>
       </c>
@@ -16046,7 +16511,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="343" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="343" spans="1:5">
       <c r="A343">
         <v>95</v>
       </c>
@@ -16063,7 +16528,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="344" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="344" spans="1:5">
       <c r="A344">
         <v>95</v>
       </c>
@@ -16080,7 +16545,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="345" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="345" spans="1:5">
       <c r="A345">
         <v>95</v>
       </c>
@@ -16097,7 +16562,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="346" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="346" spans="1:5">
       <c r="A346">
         <v>95</v>
       </c>
@@ -16114,7 +16579,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="347" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="347" spans="1:5">
       <c r="A347">
         <v>95</v>
       </c>
@@ -16131,7 +16596,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="348" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="348" spans="1:5">
       <c r="A348">
         <v>95</v>
       </c>
@@ -16148,7 +16613,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="349" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="349" spans="1:5">
       <c r="A349">
         <v>95</v>
       </c>
@@ -16165,7 +16630,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="350" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="350" spans="1:5">
       <c r="A350">
         <v>95</v>
       </c>
@@ -16182,7 +16647,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="351" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="351" spans="1:5">
       <c r="A351">
         <v>95</v>
       </c>
@@ -16199,7 +16664,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="352" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="352" spans="1:5">
       <c r="A352">
         <v>95</v>
       </c>
@@ -16216,7 +16681,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="353" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="353" spans="1:5">
       <c r="A353">
         <v>95</v>
       </c>
@@ -16233,7 +16698,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="354" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="354" spans="1:5">
       <c r="A354">
         <v>95</v>
       </c>
@@ -16250,7 +16715,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="355" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="355" spans="1:5">
       <c r="A355">
         <v>95</v>
       </c>
@@ -16267,7 +16732,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="356" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="356" spans="1:5">
       <c r="A356">
         <v>95</v>
       </c>
@@ -16284,7 +16749,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="357" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="357" spans="1:5">
       <c r="A357">
         <v>95</v>
       </c>
@@ -16301,7 +16766,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="358" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="358" spans="1:5">
       <c r="A358">
         <v>95</v>
       </c>
@@ -16318,7 +16783,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="359" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="359" spans="1:5">
       <c r="A359">
         <v>95</v>
       </c>
@@ -16335,7 +16800,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="360" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="360" spans="1:5">
       <c r="A360">
         <v>95</v>
       </c>
@@ -16352,7 +16817,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="361" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="361" spans="1:5">
       <c r="A361">
         <v>95</v>
       </c>
@@ -16369,7 +16834,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="362" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="362" spans="1:5">
       <c r="A362">
         <v>95</v>
       </c>
@@ -16386,7 +16851,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="363" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="363" spans="1:5">
       <c r="A363">
         <v>95</v>
       </c>
@@ -16403,7 +16868,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="364" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="364" spans="1:5">
       <c r="A364">
         <v>95</v>
       </c>
@@ -16420,7 +16885,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="365" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="365" spans="1:5">
       <c r="A365">
         <v>95</v>
       </c>
@@ -16437,7 +16902,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="366" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="366" spans="1:5">
       <c r="A366">
         <v>95</v>
       </c>
@@ -16465,7 +16930,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -16477,7 +16942,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
